--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390307.790149124</v>
+        <v>2383134.93551084</v>
       </c>
     </row>
     <row r="7">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.744199911425866</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.1617062975237</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>115.2930120635014</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>65.78868795944975</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.41402108404358</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.96190712986773</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>29.81811095449168</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>168.5379721050439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.518707828811</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078349</v>
+        <v>50.85019043813499</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537394</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.610357992827</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>87.3652043901931</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>148.3584260604898</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463129</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>76.42847837627755</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>129.1901879642572</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>181.5464716967363</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>43.87606892860524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113195</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.4045143601931</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>145.6925184226055</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>71.70084977237319</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>61.47226067794325</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113197</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.22752108418071</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>48.46728683286327</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>51.17810882694643</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>101.9166902817493</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>199.419699924227</v>
+        <v>12.25082275066701</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>118.7662503029867</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.334148296601503</v>
       </c>
       <c r="F31" t="n">
-        <v>145.3517394623286</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C34" t="n">
-        <v>157.7020018439383</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.22591854337889</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.58087376968993</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.8574502810802</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>82.64156856774869</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>55.21533678566918</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>235.2003280389325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.0670914110444</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="C2" t="n">
-        <v>787.0670914110444</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="D2" t="n">
-        <v>777.224465237887</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="E2" t="n">
-        <v>511.3234208422639</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="F2" t="n">
-        <v>245.4223764466408</v>
+        <v>249.5608613485117</v>
       </c>
       <c r="G2" t="n">
-        <v>230.0585164427707</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="H2" t="n">
-        <v>230.0585164427707</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098027</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806668</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806668</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="V2" t="n">
-        <v>787.0670914110444</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="W2" t="n">
-        <v>787.0670914110444</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="X2" t="n">
-        <v>787.0670914110444</v>
+        <v>515.4619057441345</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.0670914110444</v>
+        <v>515.4619057441345</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.516950659064</v>
+        <v>543.5113072083305</v>
       </c>
       <c r="C3" t="n">
-        <v>137.516950659064</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="D3" t="n">
-        <v>137.516950659064</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="E3" t="n">
-        <v>137.516950659064</v>
+        <v>369.0582779272036</v>
       </c>
       <c r="F3" t="n">
-        <v>137.516950659064</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992136</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>394.9337607940762</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="M3" t="n">
-        <v>655.5433744062263</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N3" t="n">
-        <v>655.5433744062263</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480438</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>782.4144152406848</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>580.4293576557607</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>580.4293576557607</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V3" t="n">
-        <v>345.277249424018</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W3" t="n">
-        <v>345.277249424018</v>
+        <v>751.3628074138634</v>
       </c>
       <c r="X3" t="n">
-        <v>345.277249424018</v>
+        <v>543.5113072083305</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.516950659064</v>
+        <v>543.5113072083305</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706538</v>
+        <v>35.61897997274301</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0221525919995</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423044</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>438.6515982990366</v>
+        <v>810.2108652423906</v>
       </c>
       <c r="C5" t="n">
-        <v>438.6515982990366</v>
+        <v>441.2483483019789</v>
       </c>
       <c r="D5" t="n">
-        <v>438.6515982990366</v>
+        <v>82.98264969522836</v>
       </c>
       <c r="E5" t="n">
-        <v>52.86334570079229</v>
+        <v>52.86334570079232</v>
       </c>
       <c r="F5" t="n">
-        <v>45.91784495158882</v>
+        <v>45.91784495158885</v>
       </c>
       <c r="G5" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="I5" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931875</v>
+        <v>63.33729848931881</v>
       </c>
       <c r="K5" t="n">
-        <v>232.559939181738</v>
+        <v>232.5599391817382</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923849</v>
+        <v>494.7722161923853</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365721</v>
+        <v>803.1404427365726</v>
       </c>
       <c r="N5" t="n">
         <v>1101.866392029487</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245518</v>
+        <v>1338.757197245519</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927388</v>
+        <v>1503.26363592739</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576625</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576625</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576625</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="T5" t="n">
-        <v>1326.55470157041</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="U5" t="n">
-        <v>1326.55470157041</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="V5" t="n">
-        <v>995.491814226839</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="W5" t="n">
-        <v>995.491814226839</v>
+        <v>1196.810705306512</v>
       </c>
       <c r="X5" t="n">
-        <v>995.491814226839</v>
+        <v>1196.810705306512</v>
       </c>
       <c r="Y5" t="n">
-        <v>825.2514383631583</v>
+        <v>1196.810705306512</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>280.0632316906009</v>
+        <v>660.1510391324813</v>
       </c>
       <c r="C6" t="n">
-        <v>280.0632316906009</v>
+        <v>485.6980098513543</v>
       </c>
       <c r="D6" t="n">
-        <v>280.0632316906009</v>
+        <v>336.763600190103</v>
       </c>
       <c r="E6" t="n">
-        <v>280.0632316906009</v>
+        <v>177.5261451846476</v>
       </c>
       <c r="F6" t="n">
-        <v>280.0632316906009</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="G6" t="n">
-        <v>141.6165446143719</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="H6" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="I6" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="J6" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="K6" t="n">
-        <v>177.0961854710929</v>
+        <v>201.3182042532651</v>
       </c>
       <c r="L6" t="n">
-        <v>467.5257379806057</v>
+        <v>491.747756762778</v>
       </c>
       <c r="M6" t="n">
-        <v>851.0466297233204</v>
+        <v>875.268648505493</v>
       </c>
       <c r="N6" t="n">
-        <v>1234.567521466035</v>
+        <v>998.7458163228806</v>
       </c>
       <c r="O6" t="n">
-        <v>1549.579360576625</v>
+        <v>1313.757655433471</v>
       </c>
       <c r="P6" t="n">
-        <v>1549.579360576625</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576625</v>
+        <v>1549.579360576626</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697046</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="S6" t="n">
-        <v>1297.9117332126</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="T6" t="n">
-        <v>1096.87041548155</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="U6" t="n">
-        <v>1096.87041548155</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="V6" t="n">
-        <v>861.7183072498069</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="W6" t="n">
-        <v>607.4809505216053</v>
+        <v>1243.978175123036</v>
       </c>
       <c r="X6" t="n">
-        <v>607.4809505216053</v>
+        <v>1036.126674917503</v>
       </c>
       <c r="Y6" t="n">
-        <v>448.2785687106689</v>
+        <v>828.3663761525493</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269.0962644344445</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="C7" t="n">
-        <v>269.0962644344445</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="D7" t="n">
-        <v>269.0962644344445</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="E7" t="n">
-        <v>269.0962644344445</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="F7" t="n">
-        <v>269.0962644344445</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="G7" t="n">
-        <v>180.8485832322292</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="H7" t="n">
-        <v>180.8485832322292</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="I7" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="J7" t="n">
-        <v>30.9915872115325</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177077</v>
+        <v>36.06994770177087</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391568</v>
+        <v>98.09493531391587</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004524</v>
+        <v>173.8807113004527</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454205</v>
+        <v>253.2990873454209</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451056</v>
+        <v>310.6385163451062</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179104</v>
+        <v>336.181621317911</v>
       </c>
       <c r="Q7" t="n">
-        <v>269.0962644344445</v>
+        <v>336.181621317911</v>
       </c>
       <c r="R7" t="n">
-        <v>269.0962644344445</v>
+        <v>336.181621317911</v>
       </c>
       <c r="S7" t="n">
-        <v>269.0962644344445</v>
+        <v>336.181621317911</v>
       </c>
       <c r="T7" t="n">
-        <v>269.0962644344445</v>
+        <v>336.181621317911</v>
       </c>
       <c r="U7" t="n">
-        <v>269.0962644344445</v>
+        <v>336.181621317911</v>
       </c>
       <c r="V7" t="n">
-        <v>269.0962644344445</v>
+        <v>258.9811381095499</v>
       </c>
       <c r="W7" t="n">
-        <v>269.0962644344445</v>
+        <v>258.9811381095499</v>
       </c>
       <c r="X7" t="n">
-        <v>269.0962644344445</v>
+        <v>30.99158721153253</v>
       </c>
       <c r="Y7" t="n">
-        <v>269.0962644344445</v>
+        <v>30.99158721153253</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>184.4381211782</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1655.280787374151</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1655.280787374151</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.280787374151</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>290.8087152951862</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155906</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805487</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1351.752110535069</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765186</v>
+        <v>1097.067622329182</v>
       </c>
       <c r="W13" t="n">
-        <v>786.0822064765186</v>
+        <v>807.6504522922215</v>
       </c>
       <c r="X13" t="n">
-        <v>558.0926555785013</v>
+        <v>579.6609013942042</v>
       </c>
       <c r="Y13" t="n">
-        <v>558.0926555785013</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141867</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.8045051785809</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506741</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1226.57115969328</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>937.442520906838</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>937.442520906838</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>937.442520906838</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>709.4529700088207</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.4529700088207</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,70 +5491,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080549</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.2349604684848</v>
+        <v>524.5778132641557</v>
       </c>
       <c r="C19" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1399.696552291053</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1399.696552291053</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1110.567913504611</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>855.8834252987245</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>855.8834252987245</v>
+        <v>706.2262780943954</v>
       </c>
       <c r="X19" t="n">
-        <v>855.8834252987245</v>
+        <v>706.2262780943954</v>
       </c>
       <c r="Y19" t="n">
-        <v>855.8834252987245</v>
+        <v>706.2262780943954</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5837,19 +5837,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3826.938868600405</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C22" t="n">
-        <v>3775.243809179247</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179247</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1395.970118758156</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1196.050108673708</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365623</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365623</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="W22" t="n">
-        <v>4236.576884328662</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X22" t="n">
-        <v>4008.587333430645</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y22" t="n">
-        <v>4008.587333430645</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -5998,16 +5998,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278279</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1925.814757496976</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2446.115379232724</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141521</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>819.0123268140193</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y25" t="n">
-        <v>598.2197476704891</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4154.395118699895</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>3985.458935771988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>3985.458935771988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3837.545842189595</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3690.655894691684</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4382.384669597912</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4382.384669597912</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4154.395118699895</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>4154.395118699895</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6460,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>355.5716216891753</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C31" t="n">
-        <v>355.5716216891753</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D31" t="n">
-        <v>355.5716216891753</v>
+        <v>268.760239702689</v>
       </c>
       <c r="E31" t="n">
-        <v>355.5716216891753</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241918</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688032</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347404</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609626</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609626</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>986.0022165609626</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>758.0126656629452</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>537.2200865194151</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,25 +6718,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1564.731711769082</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1894.594339433114</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2174.134404651812</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>514.9365816937622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6873,37 +6873,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347404</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609626</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609626</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>696.5850465240019</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>696.5850465240019</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>696.5850465240019</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2628.885081639667</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>2875.650209546131</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>3644.018355938592</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>3973.880983602625</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>551.5142687221453</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>401.3976293098095</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>720.4504516500522</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>720.4504516500522</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5343297994526</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>391.6040140015125</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079765</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3911.60756598123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3911.60756598123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3911.60756598123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3763.694472398837</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>4093.25603081147</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>4093.25603081147</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>4093.25603081147</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>4093.25603081147</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7411,16 +7411,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O42" t="n">
-        <v>1841.189502980821</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.358329063101</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C43" t="n">
-        <v>563.4221461351941</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1164.055751909234</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>1164.055751909234</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W43" t="n">
-        <v>874.6385818722729</v>
+        <v>791.4507812361771</v>
       </c>
       <c r="X43" t="n">
-        <v>874.6385818722729</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.6385818722729</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7651,16 +7651,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7733,19 +7733,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>926.4796629810191</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>637.0624929440586</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>637.0624929440586</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y46" t="n">
-        <v>416.2699138005285</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114201</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093849</v>
+        <v>240.66627131243</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291452</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>261.9029836709744</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,25 +8297,25 @@
         <v>100.2612329527921</v>
       </c>
       <c r="K6" t="n">
-        <v>239.998551374021</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184966</v>
+        <v>458.2546405184967</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009055</v>
+        <v>182.9054735935042</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>80.25902607109313</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.0744641817179</v>
+        <v>104.0744641817178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863229</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>285.1031356539336</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>199.7396287231156</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9722,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.872441903933</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>104.8749102765746</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>32.78140656352423</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>176.7176547498453</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>308.1251096272032</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.42746582174419</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>140.5448339759719</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>149.846711286016</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>99.69328889942254</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>238.0557115037277</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>116.0687122716814</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.047662122043505</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>26.28995546481011</v>
+        <v>213.4588326383702</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>47.72731816039091</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>143.0998143499677</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06930856060262158</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C34" t="n">
-        <v>9.544819254689514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.2080441031903</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>120.8401742532413</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.97452990085714</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>203.8814297688423</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>91.21862586089999</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.93731528489553</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749499</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818301</v>
+        <v>138241.1818301007</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133489</v>
+        <v>300621.8974133485</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124994</v>
+        <v>68875.69873124991</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414859</v>
+        <v>31952.9594241487</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179859</v>
+        <v>72609.8926617985</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279327.2236236407</v>
+        <v>279327.2236236408</v>
       </c>
       <c r="C4" t="n">
-        <v>239463.3485659242</v>
+        <v>239463.348565924</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007534</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007535</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007521</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="N4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007482</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267181</v>
+        <v>60032.17562267186</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134873.1529995748</v>
+        <v>134873.1529995746</v>
       </c>
       <c r="C6" t="n">
-        <v>136992.5328863024</v>
+        <v>136992.5328863016</v>
       </c>
       <c r="D6" t="n">
-        <v>43331.21471231958</v>
+        <v>43331.2147123201</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882828</v>
+        <v>-78598.00170855</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280677</v>
+        <v>446562.0347683468</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.626028068</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.6260280682</v>
+        <v>446562.0347683466</v>
       </c>
       <c r="J6" t="n">
-        <v>378660.9272968182</v>
+        <v>377686.3360370967</v>
       </c>
       <c r="K6" t="n">
-        <v>415583.6666039194</v>
+        <v>414609.0753441976</v>
       </c>
       <c r="L6" t="n">
-        <v>374926.7333662696</v>
+        <v>373952.1421065482</v>
       </c>
       <c r="M6" t="n">
-        <v>312735.6107942307</v>
+        <v>311761.019534509</v>
       </c>
       <c r="N6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683465</v>
       </c>
       <c r="O6" t="n">
-        <v>447536.626028068</v>
+        <v>446562.0347683468</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.626028068</v>
+        <v>446562.0347683461</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792258</v>
+        <v>130.7784101792261</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441563</v>
+        <v>387.3948401441566</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924362</v>
+        <v>107.7650274924368</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378608</v>
+        <v>246.9652540378605</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924894</v>
+        <v>124.15280619249</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326103993</v>
+        <v>286.892432610399</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516668</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924893</v>
+        <v>124.1528061924898</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326103993</v>
+        <v>286.892432610399</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924894</v>
+        <v>124.15280619249</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326103993</v>
+        <v>286.892432610399</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>344.9388417092571</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900446</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>41.52915398937586</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22.00100461619428</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>185.9062952014698</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,22 +27548,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>153.5354587318652</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>102.240563372343</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>352.1122591177701</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922219</v>
+        <v>116.8439548922218</v>
       </c>
       <c r="S5" t="n">
         <v>197.0397157291233</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.7944124161532</v>
       </c>
       <c r="U5" t="n">
         <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>217.6999665510097</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.518707828811</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663279</v>
+        <v>79.71162794663276</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.84255716264845</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
         <v>225.9228757021759</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.07233778447733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>80.38994504827033</v>
+        <v>167.7551494384634</v>
       </c>
       <c r="H7" t="n">
         <v>160.1304301278448</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300328</v>
+        <v>76.68600477300325</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.41450331463123</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108342</v>
@@ -27833,13 +27833,13 @@
         <v>286.3061659063093</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>175.7091649475504</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>284.5939820565378</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>167.6944970206767</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>104.7394040896071</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.67671015524656</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750316</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688227</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523081</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210614</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471434</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815848031</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792993</v>
+        <v>0.5257423524793007</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328626</v>
+        <v>5.384258867328639</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395821</v>
+        <v>20.26868204395826</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873997</v>
+        <v>44.62172498874008</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918873</v>
+        <v>66.8763987691889</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887709</v>
+        <v>82.96608628887731</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978083</v>
+        <v>92.31575684978107</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876265</v>
+        <v>93.80952230876289</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129661</v>
+        <v>88.58167179129684</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446389</v>
+        <v>75.60240746446409</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629897</v>
+        <v>56.77425946629912</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892782</v>
+        <v>33.0251630489279</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712205</v>
+        <v>11.98035385712208</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978134</v>
+        <v>2.30143714797814</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834393</v>
+        <v>0.04205938819834405</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439952</v>
+        <v>0.2812969577439959</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685427</v>
+        <v>2.716736407685434</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782289</v>
+        <v>9.685004904782314</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387456</v>
+        <v>26.57639371387463</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272223</v>
+        <v>45.42328988272235</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945825</v>
+        <v>61.0772188294584</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767805</v>
+        <v>71.27423354767824</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658407</v>
+        <v>73.16065042658425</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709869</v>
+        <v>66.92770204709888</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323711</v>
+        <v>53.71538134323725</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430366</v>
+        <v>35.90730990430376</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185963</v>
+        <v>17.46508655185968</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614236046</v>
+        <v>5.22496761423606</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082155</v>
+        <v>1.133824141082158</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894705</v>
+        <v>0.0185063787989471</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953252</v>
+        <v>0.2358299199953258</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594802</v>
+        <v>2.096742379594807</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768509</v>
+        <v>7.092048866768527</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366949</v>
+        <v>16.67317534366953</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672959</v>
+        <v>27.39914888672967</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821408</v>
+        <v>35.06147737821417</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344901</v>
+        <v>36.96741191344911</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437556</v>
+        <v>36.08840948437565</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715743</v>
+        <v>33.33348723715752</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925277</v>
+        <v>28.52255686925285</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.7475399370631</v>
+        <v>19.74753993706315</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633526</v>
+        <v>10.60377076633528</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009439</v>
+        <v>4.10987233300945</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889116</v>
+        <v>1.007636930889119</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156321</v>
+        <v>0.01286345018156324</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889699</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516669</v>
+        <v>111.0745309547119</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>131.0841634775703</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412745</v>
+        <v>32.67243563412757</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953729</v>
+        <v>170.9319602953731</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693403</v>
+        <v>264.8608858693405</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153406</v>
+        <v>311.4830571153408</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241559</v>
+        <v>301.7433831241561</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323552</v>
+        <v>239.2836416323555</v>
       </c>
       <c r="P5" t="n">
-        <v>166.168119880677</v>
+        <v>166.1681198806772</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175417</v>
+        <v>46.78356025175432</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>147.5804022823842</v>
+        <v>172.0470879209419</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530433</v>
+        <v>293.3631843530434</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441563</v>
+        <v>387.3948401441566</v>
       </c>
       <c r="N6" t="n">
-        <v>387.3948401441563</v>
+        <v>124.7244119367551</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793838</v>
+        <v>318.193776879384</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>238.2037425688442</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846743</v>
+        <v>5.129657060846814</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263853022</v>
+        <v>62.65150263853031</v>
       </c>
       <c r="M7" t="n">
-        <v>76.5512888752896</v>
+        <v>76.5512888752897</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360415</v>
+        <v>80.22058186360425</v>
       </c>
       <c r="O7" t="n">
-        <v>57.9186151511971</v>
+        <v>57.91861515119719</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414626</v>
+        <v>25.80111613414634</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>595.5275127043998</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>510.1640057735818</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,10 +36217,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.2506324680955</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556155</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515205989</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>255.4503488645138</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>146.7850892314816</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>315.1451088046324</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>264.7306875349194</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>590.4888118683114</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
